--- a/data/trans_dic/P55$familiarvive-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiarvive-Provincia-trans_dic.xlsx
@@ -717,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09382150973259439</v>
+        <v>0.09399051654857681</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1162446800282831</v>
+        <v>0.116609936550423</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03990372738956852</v>
+        <v>0.04014476996505446</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06128703308736188</v>
+        <v>0.06075181156207668</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1031052251946041</v>
+        <v>0.1141704562151407</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05340132987460148</v>
+        <v>0.05192373405170746</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02500063191790745</v>
+        <v>0.02392628320365977</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09966253300178272</v>
+        <v>0.0968192845668832</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4427210633139914</v>
+        <v>0.4517579960757038</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5117405535696855</v>
+        <v>0.4355070817124925</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3669420119972047</v>
+        <v>0.5352268466501081</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3185301122849269</v>
+        <v>0.3384529974629371</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7709423946763677</v>
+        <v>0.7775016350277304</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3149505748010397</v>
+        <v>0.3187385140181572</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3816336108328919</v>
+        <v>0.3424607917836319</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2264691911999077</v>
+        <v>0.2303094333948713</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5486588779295387</v>
+        <v>0.5465920225084442</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2750988760598425</v>
+        <v>0.2930395664647303</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3028664657465629</v>
+        <v>0.305726188148905</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2445841540241687</v>
+        <v>0.2380481624830755</v>
       </c>
     </row>
     <row r="7">
@@ -850,34 +850,34 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0685004528564188</v>
+        <v>0.07668606782871176</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05654813242340559</v>
+        <v>0.05618377362232172</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1191016744682897</v>
+        <v>0.1232330894526419</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3657107426108538</v>
+        <v>0.3495103055094443</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1784674260005254</v>
+        <v>0.1833145039738069</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2165548699889715</v>
+        <v>0.2139479147049688</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1048501156667461</v>
+        <v>0.09999597810022993</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.24688396208595</v>
+        <v>0.2488506733053212</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1898976975429089</v>
+        <v>0.1901279915334718</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.193591755140156</v>
+        <v>0.2023247751351562</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4024321289447133</v>
+        <v>0.3858695022407393</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2847744395799962</v>
+        <v>0.3087626982601789</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5438948595630825</v>
+        <v>0.5454275225250736</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4504449458750729</v>
+        <v>0.4492365941982729</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5124701154057421</v>
+        <v>0.5159330030307311</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6705791606630453</v>
+        <v>0.6621353938176813</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5342157446706973</v>
+        <v>0.5375332925101949</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3992849575009881</v>
+        <v>0.4066116874504886</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3776511997839359</v>
+        <v>0.3637991058808183</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4966796677972365</v>
+        <v>0.4952655898243295</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4877148865479951</v>
+        <v>0.4780822247012982</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3654607385211719</v>
+        <v>0.3796132993908422</v>
       </c>
     </row>
     <row r="10">
@@ -989,31 +989,31 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02448997659573949</v>
+        <v>0.02442056356948247</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1587740997085521</v>
+        <v>0.1770949795781582</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08127134699893593</v>
+        <v>0.08099589365738974</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07437298806934317</v>
+        <v>0.07244314176375617</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1435812700792145</v>
+        <v>0.1325006314782799</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1430682312492244</v>
+        <v>0.1452379291901298</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08029559638009375</v>
+        <v>0.07672162243172524</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08490467043504302</v>
+        <v>0.09730309510769422</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1105577855793392</v>
+        <v>0.1105121083464807</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3749136556982229</v>
+        <v>0.370197840101427</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3843898036804296</v>
+        <v>0.3875207590243671</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3187595890061959</v>
+        <v>0.3131209488651817</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2088242205250982</v>
+        <v>0.2307838620093337</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4792420608299822</v>
+        <v>0.4856635226011355</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4072475140301535</v>
+        <v>0.4090617057332216</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5946871855077882</v>
+        <v>0.5759307697277024</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.312310689306101</v>
+        <v>0.3084461206431986</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4171345218176618</v>
+        <v>0.4072640551393472</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3464441883218035</v>
+        <v>0.3222382721258867</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3863282988449618</v>
+        <v>0.4062855792223579</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.239764306656341</v>
+        <v>0.2454578113902869</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1381706346240208</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03292151894237843</v>
+        <v>0.03292151894237842</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1738292596549107</v>
@@ -1105,7 +1105,7 @@
         <v>0.184039625711632</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08063926028253036</v>
+        <v>0.08063926028253035</v>
       </c>
     </row>
     <row r="14">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05329702586093739</v>
+        <v>0.05384735263554128</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
@@ -1128,28 +1128,28 @@
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06941918448868828</v>
+        <v>0.06953478154393647</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1655236413730414</v>
+        <v>0.1622095713939594</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08364199563205857</v>
+        <v>0.07617410699998312</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0488480867842972</v>
+        <v>0.0490978766860464</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06602646947928871</v>
+        <v>0.06924078219669466</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1565366733233224</v>
+        <v>0.1422546752264809</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08978567182833348</v>
+        <v>0.07617758307230468</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03755798566457937</v>
+        <v>0.04008332283823249</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3631159646473646</v>
+        <v>0.3422117562133141</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3968375681669111</v>
+        <v>0.3975057067391436</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4007621282764606</v>
+        <v>0.3998953543530693</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1796605893349635</v>
+        <v>0.1873853419653726</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3401209286510347</v>
+        <v>0.3476473459836708</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4581504374755633</v>
+        <v>0.456931994706772</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4017727555001748</v>
+        <v>0.4045725982146797</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1911256414590167</v>
+        <v>0.1850940576566583</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2882414278865984</v>
+        <v>0.2965659181656028</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3768909918751163</v>
+        <v>0.3765321215883811</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3437259032514465</v>
+        <v>0.3278871907031732</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1373561612626887</v>
+        <v>0.1339589656998967</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.2115766858999854</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1303096276490896</v>
+        <v>0.1303096276490895</v>
       </c>
     </row>
     <row r="17">
@@ -1252,38 +1252,38 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0</v>
+        <v>4.839105640822857e-06</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1168935042550745</v>
+        <v>0.1161582603857008</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
-        <v>0.2214520844918795</v>
+        <v>0.2162758531172045</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3324392354701753</v>
+        <v>0.3344634355364404</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04904208939530408</v>
+        <v>0.04952089494229016</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1027443912527531</v>
+        <v>0.08855290830296256</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1707621866717276</v>
+        <v>0.1843106830584184</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3319753916938638</v>
+        <v>0.3308779653524963</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0756394536145141</v>
+        <v>0.08167372074843629</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06762217448895459</v>
+        <v>0.06030854968339287</v>
       </c>
     </row>
     <row r="18">
@@ -1294,38 +1294,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4576674447129703</v>
+        <v>0.4459151509228336</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7522959943866427</v>
+        <v>0.7492183103272432</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8213855743857802</v>
+        <v>0.6687354818911467</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>0.7401017843843918</v>
+        <v>0.7503918937134829</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7145336318878819</v>
+        <v>0.7108235851957412</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3944517518127415</v>
+        <v>0.4095787336849106</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3416180740190701</v>
+        <v>0.3296669540743878</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.563851975850714</v>
+        <v>0.5717097844601041</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6758565875458822</v>
+        <v>0.6765774924352205</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3907243174972008</v>
+        <v>0.4124756352773011</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2379728145710136</v>
+        <v>0.2404084078355858</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0.1614186444182673</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.06944005453161815</v>
+        <v>0.06944005453161817</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2661500950705533</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05228128426849723</v>
+        <v>0.05206536742948331</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05250562455699565</v>
+        <v>0.05233948506212202</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01756629745300196</v>
+        <v>0.01783855555693375</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1278934285692963</v>
+        <v>0.1265356487996255</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.05105809771519593</v>
+        <v>0.05080260689448556</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.09850231243926916</v>
+        <v>0.09476962988502274</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06024373357675943</v>
+        <v>0.05412186652503489</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.114182715966051</v>
+        <v>0.1150917163606593</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0277147150628551</v>
+        <v>0.02763142809434792</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.109398202479603</v>
+        <v>0.1130689718990329</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04957015911179447</v>
+        <v>0.05358772338191697</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4064323265538487</v>
+        <v>0.3719924911814623</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2295461413830131</v>
+        <v>0.2862514377701814</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3846861292355664</v>
+        <v>0.3817669500522365</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1726249534836308</v>
+        <v>0.1568138748383891</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4786639757817238</v>
+        <v>0.4755216230502063</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3610861171930142</v>
+        <v>0.3591530261850455</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4901595457140628</v>
+        <v>0.50066462492664</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1904440817017944</v>
+        <v>0.1930332296220567</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3683654516268557</v>
+        <v>0.3834281825029832</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2458101661460662</v>
+        <v>0.2546269700829842</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3933508236852168</v>
+        <v>0.4082939128646732</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1442717665715913</v>
+        <v>0.1521752400846409</v>
       </c>
     </row>
     <row r="22">
@@ -1509,7 +1509,7 @@
         <v>0.2045237463360941</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.1687632594733888</v>
+        <v>0.1687632594733889</v>
       </c>
     </row>
     <row r="23">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1020977440095603</v>
+        <v>0.09879565304562871</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1061030301171471</v>
+        <v>0.1071479453384157</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
@@ -1532,28 +1532,28 @@
         <v>0</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1565769602728657</v>
+        <v>0.1625784744507263</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1373788546508915</v>
+        <v>0.1235600557973151</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.153973508630991</v>
+        <v>0.1516120681752944</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1358414599320898</v>
+        <v>0.1342552775920544</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1820941174102836</v>
+        <v>0.1841652396481199</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1579156822514907</v>
+        <v>0.1560573861799308</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1224589085179056</v>
+        <v>0.1155246033012525</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1088343206136734</v>
+        <v>0.1156224028884111</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5653350555041281</v>
+        <v>0.5437719010152436</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4578129755900319</v>
+        <v>0.490284379649129</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2476818293561522</v>
+        <v>0.2238751745124625</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.223772534310762</v>
+        <v>0.1943392725281372</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4664226999330041</v>
+        <v>0.4651189720494379</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3957045133787461</v>
+        <v>0.3825820015434915</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4141499251851327</v>
+        <v>0.407280130111671</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3043993573017384</v>
+        <v>0.3046855675806532</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4221554254699417</v>
+        <v>0.4380745840796123</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3618745963602092</v>
+        <v>0.3689021437029507</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3183719582742335</v>
+        <v>0.3091243306078047</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2445688319350623</v>
+        <v>0.2496887366374754</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +1633,7 @@
         <v>0.3233672985074882</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.2307614150203918</v>
+        <v>0.2307614150203917</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.257576026730224</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05976344897638058</v>
+        <v>0.0598591889830629</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05717732016582364</v>
+        <v>0.05460537565496254</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.07707681203531533</v>
+        <v>0.07049912360604642</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03427728391690001</v>
+        <v>0.03449205713377989</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1991004803830053</v>
+        <v>0.1829866588816007</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.09378536780473336</v>
+        <v>0.1175578640846145</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1948166222685957</v>
+        <v>0.1819618651832114</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.153851401363051</v>
+        <v>0.1584843620867523</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1698376706834411</v>
+        <v>0.1682697419955537</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1312027392077683</v>
+        <v>0.126043149483851</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1816271277301757</v>
+        <v>0.1765364061464979</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1471183606136911</v>
+        <v>0.1453262502707216</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.306047643736947</v>
+        <v>0.3253707925568118</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5376429362614298</v>
+        <v>0.5326647066490321</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4082830219218142</v>
+        <v>0.3761114468087569</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3118379431382468</v>
+        <v>0.3138635421434041</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.4883954622372291</v>
+        <v>0.4805877252486416</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3527550074518332</v>
+        <v>0.3637849528634616</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4683970413372722</v>
+        <v>0.4719516541618066</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3028075623750138</v>
+        <v>0.3185242659394343</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3698300695412621</v>
+        <v>0.3680520156720685</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3533294314512062</v>
+        <v>0.3389375313143339</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.4028800947650752</v>
+        <v>0.4024631655230057</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.278301490395422</v>
+        <v>0.2874874051891689</v>
       </c>
     </row>
     <row r="28">
@@ -1769,7 +1769,7 @@
         <v>0.2639909301953108</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.2013146325584255</v>
+        <v>0.2013146325584256</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.250624434792432</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.09366357930322894</v>
+        <v>0.09858490516230982</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1204536448685069</v>
+        <v>0.1207601357499336</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1022095448318936</v>
+        <v>0.09497090901331036</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.07524561766975402</v>
+        <v>0.07408302975443647</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2406246001620983</v>
+        <v>0.2438784623876211</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2310554300172905</v>
+        <v>0.2366337085839759</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2071271130239427</v>
+        <v>0.21339108741789</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1689077332369104</v>
+        <v>0.1707637678380646</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2079075683970177</v>
+        <v>0.207616581250103</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2125739849014827</v>
+        <v>0.2112936748866892</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1811364473924327</v>
+        <v>0.1859656117652191</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1449569936755971</v>
+        <v>0.1480849779815934</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2228291236217313</v>
+        <v>0.226546663000233</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2608977126061344</v>
+        <v>0.2645002553756535</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2341700921726541</v>
+        <v>0.2166472018746338</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1527519518303978</v>
+        <v>0.1563488933015401</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3675083390692294</v>
+        <v>0.364882012047018</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3471124169100049</v>
+        <v>0.3511278375384752</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3252089568597847</v>
+        <v>0.3312471231496483</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2330934075380414</v>
+        <v>0.2347275697385706</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2985094560080115</v>
+        <v>0.3037472652663393</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3020532441493636</v>
+        <v>0.2973315645654429</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2778226905414137</v>
+        <v>0.277737734022959</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1987175985408176</v>
+        <v>0.1991915074670181</v>
       </c>
     </row>
     <row r="31">
@@ -2153,31 +2153,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2743</v>
+        <v>2748</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1135</v>
+        <v>1142</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2059</v>
+        <v>2041</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1950</v>
+        <v>2159</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2148</v>
+        <v>2088</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>844</v>
+        <v>808</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>6261</v>
+        <v>6083</v>
       </c>
     </row>
     <row r="7">
@@ -2188,40 +2188,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3838</v>
+        <v>3916</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6028</v>
+        <v>5130</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3302</v>
+        <v>4816</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9312</v>
+        <v>9894</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7896</v>
+        <v>7963</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>8956</v>
+        <v>9064</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9451</v>
+        <v>8481</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>7607</v>
+        <v>7736</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>10376</v>
+        <v>10337</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>11063</v>
+        <v>11785</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>10225</v>
+        <v>10322</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>15366</v>
+        <v>14955</v>
       </c>
     </row>
     <row r="8">
@@ -2330,34 +2330,34 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>872</v>
+        <v>977</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2705</v>
+        <v>2799</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>15482</v>
+        <v>14796</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6486</v>
+        <v>6662</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>12675</v>
+        <v>12523</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>4088</v>
+        <v>3899</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>16258</v>
+        <v>16387</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>9320</v>
+        <v>9331</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>14520</v>
+        <v>15175</v>
       </c>
     </row>
     <row r="11">
@@ -2368,40 +2368,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6552</v>
+        <v>6282</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6697</v>
+        <v>7261</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6926</v>
+        <v>6945</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7419</v>
+        <v>7399</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11638</v>
+        <v>11716</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>28388</v>
+        <v>28031</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>19416</v>
+        <v>19536</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23371</v>
+        <v>23799</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14724</v>
+        <v>14184</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>32707</v>
+        <v>32614</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>23936</v>
+        <v>23463</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>27410</v>
+        <v>28471</v>
       </c>
     </row>
     <row r="12">
@@ -2513,31 +2513,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5675</v>
+        <v>6330</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2153</v>
+        <v>2146</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1289</v>
+        <v>1255</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6405</v>
+        <v>5911</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6605</v>
+        <v>6705</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3283</v>
+        <v>3137</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2722</v>
+        <v>3120</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>7720</v>
+        <v>7717</v>
       </c>
     </row>
     <row r="15">
@@ -2548,40 +2548,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3906</v>
+        <v>3857</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5535</v>
+        <v>5580</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4697</v>
+        <v>4614</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5266</v>
+        <v>5820</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17131</v>
+        <v>17360</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10789</v>
+        <v>10837</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10305</v>
+        <v>9980</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13932</v>
+        <v>13759</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>19257</v>
+        <v>18801</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>14166</v>
+        <v>13177</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>12387</v>
+        <v>13027</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>16742</v>
+        <v>17139</v>
       </c>
     </row>
     <row r="16">
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1027</v>
+        <v>1037</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
@@ -2696,28 +2696,28 @@
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2216</v>
+        <v>2220</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>6533</v>
+        <v>6402</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2457</v>
+        <v>2238</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1856</v>
+        <v>1865</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2992</v>
+        <v>3137</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>9193</v>
+        <v>8355</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3891</v>
+        <v>3301</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2094</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="19">
@@ -2728,40 +2728,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4862</v>
+        <v>4582</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7644</v>
+        <v>7657</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5594</v>
+        <v>5582</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>3191</v>
+        <v>3328</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10857</v>
+        <v>11097</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>18082</v>
+        <v>18034</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>11804</v>
+        <v>11886</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>7260</v>
+        <v>7031</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>13060</v>
+        <v>13437</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>22135</v>
+        <v>22114</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>14897</v>
+        <v>14210</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>7657</v>
+        <v>7468</v>
       </c>
     </row>
     <row r="20">
@@ -2867,35 +2867,35 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="inlineStr"/>
       <c r="G22" s="6" t="n">
-        <v>3459</v>
+        <v>3378</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>8398</v>
+        <v>8449</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1185</v>
+        <v>1196</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1726</v>
+        <v>1488</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4142</v>
+        <v>4471</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>11366</v>
+        <v>11328</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2200</v>
+        <v>2376</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1690</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="23">
@@ -2906,38 +2906,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3954</v>
+        <v>3852</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6752</v>
+        <v>6724</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4051</v>
+        <v>3298</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="n">
-        <v>11559</v>
+        <v>11720</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>18050</v>
+        <v>17956</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>9530</v>
+        <v>9895</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>5740</v>
+        <v>5539</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>13677</v>
+        <v>13868</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>23139</v>
+        <v>23163</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>11367</v>
+        <v>11999</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>5949</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="24">
@@ -3040,40 +3040,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>3575</v>
+        <v>3537</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2304</v>
+        <v>2217</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1937</v>
+        <v>1740</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>5244</v>
+        <v>5285</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>4193</v>
+        <v>4333</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>2794</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="27">
@@ -3084,40 +3084,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7303</v>
+        <v>6684</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4151</v>
+        <v>5176</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5745</v>
+        <v>5702</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4182</v>
+        <v>3799</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>13381</v>
+        <v>13293</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>7685</v>
+        <v>7644</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>11464</v>
+        <v>11710</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6122</v>
+        <v>6206</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>16916</v>
+        <v>17608</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>9676</v>
+        <v>10023</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>15075</v>
+        <v>15647</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>8133</v>
+        <v>8579</v>
       </c>
     </row>
     <row r="28">
@@ -3220,10 +3220,10 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1911</v>
+        <v>1849</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>6134</v>
+        <v>6369</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>6782</v>
+        <v>6100</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>8673</v>
+        <v>8540</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>8866</v>
+        <v>8763</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>10541</v>
+        <v>10661</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>12427</v>
+        <v>12281</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>10134</v>
+        <v>9560</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>10215</v>
+        <v>10852</v>
       </c>
     </row>
     <row r="31">
@@ -3264,40 +3264,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>10579</v>
+        <v>10176</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>13426</v>
+        <v>14378</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>6546</v>
+        <v>5917</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>6398</v>
+        <v>5557</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>18272</v>
+        <v>18221</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>19535</v>
+        <v>18887</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>23327</v>
+        <v>22940</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>19868</v>
+        <v>19887</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>24437</v>
+        <v>25359</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>28477</v>
+        <v>29030</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>26347</v>
+        <v>25582</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>22955</v>
+        <v>23436</v>
       </c>
     </row>
     <row r="32">
@@ -3400,40 +3400,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1191</v>
+        <v>1137</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1907</v>
+        <v>1744</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>9469</v>
+        <v>8703</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>4398</v>
+        <v>5512</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>10846</v>
+        <v>10130</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>10509</v>
+        <v>10826</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>13597</v>
+        <v>13472</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>8885</v>
+        <v>8535</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>14604</v>
+        <v>14195</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>12907</v>
+        <v>12750</v>
       </c>
     </row>
     <row r="35">
@@ -3444,40 +3444,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>9946</v>
+        <v>10574</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>11196</v>
+        <v>11093</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>10099</v>
+        <v>9303</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>6057</v>
+        <v>6096</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>23228</v>
+        <v>22857</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>16541</v>
+        <v>17058</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>26077</v>
+        <v>26274</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>20684</v>
+        <v>21758</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>29608</v>
+        <v>29466</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>23926</v>
+        <v>22951</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>32395</v>
+        <v>32361</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>24416</v>
+        <v>25222</v>
       </c>
     </row>
     <row r="36">
@@ -3580,40 +3580,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>11856</v>
+        <v>12479</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>17606</v>
+        <v>17651</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>12414</v>
+        <v>11535</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>12726</v>
+        <v>12529</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>55566</v>
+        <v>56317</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>64587</v>
+        <v>66146</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>55378</v>
+        <v>57053</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>60341</v>
+        <v>61004</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>74327</v>
+        <v>74223</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>90492</v>
+        <v>89947</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>70430</v>
+        <v>72307</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>76300</v>
+        <v>77946</v>
       </c>
     </row>
     <row r="39">
@@ -3624,40 +3624,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>28205</v>
+        <v>28676</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>38135</v>
+        <v>38661</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>28442</v>
+        <v>26314</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>25834</v>
+        <v>26442</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>84866</v>
+        <v>84259</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>97028</v>
+        <v>98151</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>86949</v>
+        <v>88563</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>83271</v>
+        <v>83854</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>106717</v>
+        <v>108590</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>128583</v>
+        <v>126573</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>108023</v>
+        <v>107990</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>104597</v>
+        <v>104847</v>
       </c>
     </row>
     <row r="40">
